--- a/ArtigoKrigingVsg/peaks/VirtualSamplesComplete.xlsx
+++ b/ArtigoKrigingVsg/peaks/VirtualSamplesComplete.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.346262834575048</v>
+        <v>0.08373888865290463</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08373888865290463</v>
+        <v>0.6620963141816841</v>
       </c>
     </row>
     <row r="4">
@@ -482,10 +482,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6620963141816841</v>
+        <v>-1.346262834575048</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +493,10 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.346262834575048</v>
+        <v>-0.4943307705808023</v>
       </c>
     </row>
     <row r="6">
@@ -504,21 +504,21 @@
         <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4943307705808023</v>
+        <v>0.9080080539761659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9080080539761659</v>
+        <v>-2.416132529960544</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +526,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0168840571388518</v>
+        <v>0.1126821534401601</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.416132529960544</v>
+        <v>-0.0168840571388518</v>
       </c>
     </row>
     <row r="10">
@@ -548,10 +548,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1126821534401601</v>
+        <v>2.004075919298646</v>
       </c>
     </row>
     <row r="11">
@@ -559,32 +559,32 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0168840571388518</v>
+        <v>3.957524834748929</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.004075919298646</v>
+        <v>-3.392024819143388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.957524834748929</v>
+        <v>-0.6376064093633786</v>
       </c>
     </row>
     <row r="14">
@@ -603,10 +603,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.392024819143388</v>
+        <v>3.341563559628241</v>
       </c>
     </row>
     <row r="16">
@@ -614,43 +614,43 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6376064093633786</v>
+        <v>4.153772430207312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>2.018028306713215</v>
+        <v>-0.9957318509079218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3.341563559628241</v>
+        <v>0.2256857649168159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.153772430207312</v>
+        <v>2.09855807359484</v>
       </c>
     </row>
     <row r="20">
@@ -658,10 +658,10 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>2.09855807359484</v>
+        <v>1.570175925089259</v>
       </c>
     </row>
     <row r="21">
@@ -669,65 +669,65 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9957318509079218</v>
+        <v>0.9876082416053322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2256857649168159</v>
+        <v>0.2611324803015852</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>2.09855807359484</v>
+        <v>0.3166552326034067</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.570175925089259</v>
+        <v>-2.439768421782791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9876082416053322</v>
+        <v>-1.432261556659985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.439768421782791</v>
+        <v>0.1276654147085979</v>
       </c>
     </row>
     <row r="27">
@@ -735,10 +735,10 @@
         <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2611324803015852</v>
+        <v>-0.559464741079873</v>
       </c>
     </row>
     <row r="28">
@@ -746,10 +746,10 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3166552326034067</v>
+        <v>0.01515476011764776</v>
       </c>
     </row>
     <row r="29">
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.439768421782791</v>
+        <v>0.2644535180554625</v>
       </c>
     </row>
     <row r="30">
@@ -768,10 +768,10 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.432261556659985</v>
+        <v>1.318403518704277</v>
       </c>
     </row>
     <row r="31">
@@ -779,207 +779,119 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1276654147085979</v>
+        <v>1.14205109405719</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2644535180554625</v>
+        <v>-1.184977373010164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.559464741079873</v>
+        <v>-0.6785372011750905</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01515476011764776</v>
+        <v>2.221698524169522</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2644535180554625</v>
+        <v>2.645203700103232</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.318403518704277</v>
+        <v>1.052308173033587</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1.14205109405719</v>
+        <v>-0.1249835328388174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>2.221698524169522</v>
+        <v>1.405454626907681</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.184977373010164</v>
+        <v>4.509260985923611</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6785372011750905</v>
+        <v>2.618176608264823</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>2.221698524169522</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.645203700103232</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.052308173033587</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.509260985923611</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.1249835328388174</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.405454626907681</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.509260985923611</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.618176608264823</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
         <v>0.3236282028394758</v>
       </c>
     </row>
@@ -994,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,10 +936,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.809008216591362</v>
+        <v>0.4235547374920643</v>
       </c>
     </row>
     <row r="3">
@@ -1035,10 +947,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4235547374920643</v>
+        <v>1.318300794578028</v>
       </c>
     </row>
     <row r="4">
@@ -1046,10 +958,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.318300794578028</v>
+        <v>-1.809008216591362</v>
       </c>
     </row>
     <row r="5">
@@ -1057,10 +969,10 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.809008216591362</v>
+        <v>-0.675697613714089</v>
       </c>
     </row>
     <row r="6">
@@ -1068,21 +980,21 @@
         <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.675697613714089</v>
+        <v>0.4293309949835339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4293309949835339</v>
+        <v>-3.01134817891804</v>
       </c>
     </row>
     <row r="8">
@@ -1090,10 +1002,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6227429469695799</v>
+        <v>0.7479605142706949</v>
       </c>
     </row>
     <row r="9">
@@ -1101,10 +1013,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.01134817891804</v>
+        <v>-0.6227429469695799</v>
       </c>
     </row>
     <row r="10">
@@ -1112,10 +1024,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7479605142706949</v>
+        <v>2.149165588162713</v>
       </c>
     </row>
     <row r="11">
@@ -1123,32 +1035,32 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6227429469695799</v>
+        <v>4.583632476078614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.149165588162713</v>
+        <v>-4.157983975716469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>4.583632476078614</v>
+        <v>-1.014258387423858</v>
       </c>
     </row>
     <row r="14">
@@ -1167,10 +1079,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.157983975716469</v>
+        <v>3.654883113686972</v>
       </c>
     </row>
     <row r="16">
@@ -1178,43 +1090,43 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.014258387423858</v>
+        <v>4.661222488352294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>2.411321557594434</v>
+        <v>-0.5373574963017463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3.654883113686972</v>
+        <v>0.3854690312796619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.661222488352294</v>
+        <v>2.412356926086823</v>
       </c>
     </row>
     <row r="20">
@@ -1222,10 +1134,10 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>2.412356926086823</v>
+        <v>1.213670281817384</v>
       </c>
     </row>
     <row r="21">
@@ -1233,65 +1145,65 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5373574963017463</v>
+        <v>0.5256638262763336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3854690312796619</v>
+        <v>0.158293885689053</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>2.412356926086823</v>
+        <v>1.275617850204096</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.213670281817384</v>
+        <v>-2.977633055850829</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5256638262763336</v>
+        <v>-1.73613921132073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.977633055850829</v>
+        <v>0.05049110933342778</v>
       </c>
     </row>
     <row r="27">
@@ -1299,10 +1211,10 @@
         <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.158293885689053</v>
+        <v>-0.837016269963701</v>
       </c>
     </row>
     <row r="28">
@@ -1310,10 +1222,10 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1.275617850204096</v>
+        <v>0.2254440967570561</v>
       </c>
     </row>
     <row r="29">
@@ -1321,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.977633055850829</v>
+        <v>0.5010502194470686</v>
       </c>
     </row>
     <row r="30">
@@ -1332,10 +1244,10 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.73613921132073</v>
+        <v>1.675296229229132</v>
       </c>
     </row>
     <row r="31">
@@ -1343,207 +1255,119 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05049110933342778</v>
+        <v>1.11149384046635</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5010502194470686</v>
+        <v>-1.114108358953093</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.837016269963701</v>
+        <v>-1.53299295929533</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2254440967570561</v>
+        <v>1.930395494499225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5010502194470686</v>
+        <v>2.962544235949535</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.675296229229132</v>
+        <v>1.137673212371529</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1.11149384046635</v>
+        <v>-0.0335871952061069</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.930395494499225</v>
+        <v>1.752126261181803</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.114108358953093</v>
+        <v>5.380632817557998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.53299295929533</v>
+        <v>2.20480355658281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.930395494499225</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.962544235949535</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.137673212371529</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.380632817557998</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.0335871952061069</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.752126261181803</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.380632817557998</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.20480355658281</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
         <v>0.2035780888067933</v>
       </c>
     </row>
@@ -1558,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,10 +1412,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.149771600590138</v>
+        <v>-0.07399303400735256</v>
       </c>
     </row>
     <row r="3">
@@ -1599,10 +1423,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07399303400735256</v>
+        <v>0.5337389238828505</v>
       </c>
     </row>
     <row r="4">
@@ -1610,10 +1434,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5337389238828505</v>
+        <v>-1.149771600590138</v>
       </c>
     </row>
     <row r="5">
@@ -1621,10 +1445,10 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.149771600590138</v>
+        <v>-0.2454106258422668</v>
       </c>
     </row>
     <row r="6">
@@ -1632,21 +1456,21 @@
         <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2454106258422668</v>
+        <v>0.8913813876623726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8913813876623726</v>
+        <v>-2.200853708353485</v>
       </c>
     </row>
     <row r="8">
@@ -1654,10 +1478,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.006748853014281486</v>
+        <v>0.1112100537060508</v>
       </c>
     </row>
     <row r="9">
@@ -1665,10 +1489,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.200853708353485</v>
+        <v>-0.006748853014281486</v>
       </c>
     </row>
     <row r="10">
@@ -1676,10 +1500,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1112100537060508</v>
+        <v>1.955948631561417</v>
       </c>
     </row>
     <row r="11">
@@ -1687,32 +1511,32 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.006748853014281486</v>
+        <v>3.630421066130253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.955948631561417</v>
+        <v>-3.011818721844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.630421066130253</v>
+        <v>-0.6067458277615685</v>
       </c>
     </row>
     <row r="14">
@@ -1731,10 +1555,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.011818721844</v>
+        <v>3.156423032780669</v>
       </c>
     </row>
     <row r="16">
@@ -1742,43 +1566,43 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6067458277615685</v>
+        <v>3.798740489804807</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>1.876152940975782</v>
+        <v>-0.8924277924349212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3.156423032780669</v>
+        <v>0.2375216032995495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.798740489804807</v>
+        <v>1.91666111108267</v>
       </c>
     </row>
     <row r="20">
@@ -1786,10 +1610,10 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.91666111108267</v>
+        <v>1.514929078125878</v>
       </c>
     </row>
     <row r="21">
@@ -1797,65 +1621,65 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8924277924349212</v>
+        <v>1.113929241569717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2375216032995495</v>
+        <v>0.1047278651507054</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.91666111108267</v>
+        <v>0.240624670804396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.514929078125878</v>
+        <v>-2.270803650382733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.113929241569717</v>
+        <v>-1.283076279148917</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.270803650382733</v>
+        <v>0.07632076272490838</v>
       </c>
     </row>
     <row r="27">
@@ -1863,10 +1687,10 @@
         <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1047278651507054</v>
+        <v>-0.591876872740547</v>
       </c>
     </row>
     <row r="28">
@@ -1874,10 +1698,10 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240624670804396</v>
+        <v>0.02152886294520879</v>
       </c>
     </row>
     <row r="29">
@@ -1885,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.270803650382733</v>
+        <v>0.2900251276267257</v>
       </c>
     </row>
     <row r="30">
@@ -1896,10 +1720,10 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.283076279148917</v>
+        <v>1.208074495830077</v>
       </c>
     </row>
     <row r="31">
@@ -1907,207 +1731,119 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07632076272490838</v>
+        <v>0.9869878218265694</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2900251276267257</v>
+        <v>-0.8977256349404399</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.591876872740547</v>
+        <v>-0.5018215722378101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02152886294520879</v>
+        <v>2.035394873971412</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2900251276267257</v>
+        <v>2.514706671841976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.208074495830077</v>
+        <v>1.134561866562839</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9869878218265694</v>
+        <v>-0.06405839987310871</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>2.035394873971412</v>
+        <v>1.447754957774238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.8977256349404399</v>
+        <v>4.217343679358079</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5018215722378101</v>
+        <v>2.394786502874987</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>2.035394873971412</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.514706671841976</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.134561866562839</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.217343679358079</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.06405839987310871</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.447754957774238</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.217343679358079</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.394786502874987</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
         <v>0.5013215642450382</v>
       </c>
     </row>
@@ -2122,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,10 +1888,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1972889442476743</v>
+        <v>-0.3957668166708554</v>
       </c>
     </row>
     <row r="3">
@@ -2163,10 +1899,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3957668166708554</v>
+        <v>-0.09439015286872768</v>
       </c>
     </row>
     <row r="4">
@@ -2174,10 +1910,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09439015286872768</v>
+        <v>0.1972889442476743</v>
       </c>
     </row>
     <row r="5">
@@ -2185,10 +1921,10 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1972889442476743</v>
+        <v>0.6389316348828413</v>
       </c>
     </row>
     <row r="6">
@@ -2196,21 +1932,21 @@
         <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6389316348828413</v>
+        <v>1.04334848036288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>1.04334848036288</v>
+        <v>-0.5248368581600884</v>
       </c>
     </row>
     <row r="8">
@@ -2218,10 +1954,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4862988710604831</v>
+        <v>-0.04312789694951585</v>
       </c>
     </row>
     <row r="9">
@@ -2229,10 +1965,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5248368581600884</v>
+        <v>0.4862988710604831</v>
       </c>
     </row>
     <row r="10">
@@ -2240,10 +1976,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04312789694951585</v>
+        <v>1.079584078096785</v>
       </c>
     </row>
     <row r="11">
@@ -2251,32 +1987,32 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4862988710604831</v>
+        <v>1.492935680244106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.079584078096785</v>
+        <v>-0.5048084375653061</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>1.492935680244106</v>
+        <v>0.05952394856181614</v>
       </c>
     </row>
     <row r="14">
@@ -2295,10 +2031,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5048084375653061</v>
+        <v>1.346861418492051</v>
       </c>
     </row>
     <row r="16">
@@ -2306,43 +2042,43 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05952394856181614</v>
+        <v>1.663021909512511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7688842009435356</v>
+        <v>-0.2453654600062741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>1.346861418492051</v>
+        <v>0.2480898159664835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.663021909512511</v>
+        <v>0.8446795731606602</v>
       </c>
     </row>
     <row r="20">
@@ -2350,10 +2086,10 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8446795731606602</v>
+        <v>1.249826711672721</v>
       </c>
     </row>
     <row r="21">
@@ -2361,65 +2097,65 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2453654600062741</v>
+        <v>1.470066349228546</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2480898159664835</v>
+        <v>-0.2493448478953544</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8446795731606602</v>
+        <v>-0.2652757070114841</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.249826711672721</v>
+        <v>-0.3286289222298163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.470066349228546</v>
+        <v>-0.1537960145198432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3286289222298163</v>
+        <v>0.08533871777854356</v>
       </c>
     </row>
     <row r="27">
@@ -2427,10 +2163,10 @@
         <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2493448478953544</v>
+        <v>-0.01915261667716647</v>
       </c>
     </row>
     <row r="28">
@@ -2438,10 +2174,10 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2652757070114841</v>
+        <v>0.1263260858817081</v>
       </c>
     </row>
     <row r="29">
@@ -2449,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3286289222298163</v>
+        <v>0.3135024878383588</v>
       </c>
     </row>
     <row r="30">
@@ -2460,10 +2196,10 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1537960145198432</v>
+        <v>0.5039680593230298</v>
       </c>
     </row>
     <row r="31">
@@ -2471,207 +2207,119 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08533871777854356</v>
+        <v>0.5774784729766154</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3135024878383588</v>
+        <v>0.288142061936361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01915261667716647</v>
+        <v>0.5766927919523206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1263260858817081</v>
+        <v>0.973426839804551</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3135024878383588</v>
+        <v>1.11402426307113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5039680593230298</v>
+        <v>1.006634086993879</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5774784729766154</v>
+        <v>0.6803517097375731</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.973426839804551</v>
+        <v>1.086211918800821</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>0.288142061936361</v>
+        <v>1.505173813963901</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5766927919523206</v>
+        <v>1.487546964144684</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.973426839804551</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.11402426307113</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.006634086993879</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.505173813963901</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.6803517097375731</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.086211918800821</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.505173813963901</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.487546964144684</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
         <v>1.267168668838015</v>
       </c>
     </row>
@@ -2686,7 +2334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2716,10 +2364,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3715130411233524</v>
+        <v>-0.3998262670419992</v>
       </c>
     </row>
     <row r="3">
@@ -2727,10 +2375,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3998262670419992</v>
+        <v>-0.01459010968921985</v>
       </c>
     </row>
     <row r="4">
@@ -2738,10 +2386,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01459010968921985</v>
+        <v>-0.3715130411233524</v>
       </c>
     </row>
     <row r="5">
@@ -2749,10 +2397,10 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3715130411233524</v>
+        <v>0.2859761890634501</v>
       </c>
     </row>
     <row r="6">
@@ -2760,21 +2408,21 @@
         <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2859761890634501</v>
+        <v>1.046778760674071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>1.046778760674071</v>
+        <v>-1.333364180305187</v>
       </c>
     </row>
     <row r="8">
@@ -2782,10 +2430,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3678130001061521</v>
+        <v>-0.1689781638705185</v>
       </c>
     </row>
     <row r="9">
@@ -2793,10 +2441,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.333364180305187</v>
+        <v>0.3678130001061521</v>
       </c>
     </row>
     <row r="10">
@@ -2804,10 +2452,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1689781638705185</v>
+        <v>1.59410038252826</v>
       </c>
     </row>
     <row r="11">
@@ -2815,32 +2463,32 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3678130001061521</v>
+        <v>2.487782698388641</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.59410038252826</v>
+        <v>-1.647062010801143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>2.487782698388641</v>
+        <v>-0.2919113159664017</v>
       </c>
     </row>
     <row r="14">
@@ -2859,10 +2507,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.647062010801143</v>
+        <v>2.295935008338319</v>
       </c>
     </row>
     <row r="16">
@@ -2870,43 +2518,43 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2919113159664017</v>
+        <v>2.711594682514032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>1.2858589188272</v>
+        <v>-0.7002751592062322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>2.295935008338319</v>
+        <v>0.1826449445946907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.711594682514032</v>
+        <v>1.327798576675119</v>
       </c>
     </row>
     <row r="20">
@@ -2914,10 +2562,10 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.327798576675119</v>
+        <v>1.53937225493248</v>
       </c>
     </row>
     <row r="21">
@@ -2925,65 +2573,65 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7002751592062322</v>
+        <v>1.499678447296393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1826449445946907</v>
+        <v>-0.1869225497725316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.327798576675119</v>
+        <v>-0.2881258644589021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.53937225493248</v>
+        <v>-1.229349715456939</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.499678447296393</v>
+        <v>-0.7447207148179407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.229349715456939</v>
+        <v>-0.01858483231844032</v>
       </c>
     </row>
     <row r="27">
@@ -2991,10 +2639,10 @@
         <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1869225497725316</v>
+        <v>-0.3421310731792111</v>
       </c>
     </row>
     <row r="28">
@@ -3002,10 +2650,10 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2881258644589021</v>
+        <v>-0.0235650737297722</v>
       </c>
     </row>
     <row r="29">
@@ -3013,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.229349715456939</v>
+        <v>0.2704851450942683</v>
       </c>
     </row>
     <row r="30">
@@ -3024,10 +2672,10 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.7447207148179407</v>
+        <v>0.7664367475708695</v>
       </c>
     </row>
     <row r="31">
@@ -3035,207 +2683,119 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01858483231844032</v>
+        <v>0.7483814804733869</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2704851450942683</v>
+        <v>-0.2873454845729853</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3421310731792111</v>
+        <v>0.2470144324081659</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0235650737297722</v>
+        <v>1.574837614255044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2704851450942683</v>
+        <v>1.831465558505821</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7664367475708695</v>
+        <v>1.144687741167967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7483814804733869</v>
+        <v>0.308666837280085</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.574837614255044</v>
+        <v>1.341853248854953</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2873454845729853</v>
+        <v>2.768254849505528</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2470144324081659</v>
+        <v>2.098853989919366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.574837614255044</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.831465558505821</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.144687741167967</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.768254849505528</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.308666837280085</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.341853248854953</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.768254849505528</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.098853989919366</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
         <v>1.060933903138714</v>
       </c>
     </row>
@@ -3250,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3280,7 +2840,7 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
         <v>0.5173638935743443</v>
@@ -3291,7 +2851,7 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0.5173638935743443</v>
@@ -3302,7 +2862,7 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.5173638935743443</v>
@@ -3313,7 +2873,7 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>0.5173638935743443</v>
@@ -3324,7 +2884,7 @@
         <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0.5173638935743443</v>
@@ -3332,10 +2892,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
         <v>0.5173638935743443</v>
@@ -3346,7 +2906,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>0.5173638935743443</v>
@@ -3357,7 +2917,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0.5173638935743443</v>
@@ -3368,7 +2928,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0.5173638935743443</v>
@@ -3379,7 +2939,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0.5173638935743443</v>
@@ -3387,10 +2947,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
         <v>0.5173638935743443</v>
@@ -3398,10 +2958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>0.5173638935743443</v>
@@ -3423,7 +2983,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>0.5173638935743443</v>
@@ -3434,7 +2994,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0.5173638935743443</v>
@@ -3442,10 +3002,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
         <v>0.5173638935743443</v>
@@ -3453,10 +3013,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>0.5173638935743443</v>
@@ -3464,10 +3024,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0.5173638935743443</v>
@@ -3478,7 +3038,7 @@
         <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>0.5173638935743443</v>
@@ -3489,7 +3049,7 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0.5173638935743443</v>
@@ -3497,10 +3057,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
         <v>0.5173638935743443</v>
@@ -3508,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
         <v>0.5173638935743443</v>
@@ -3519,10 +3079,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
         <v>0.5173638935743443</v>
@@ -3530,10 +3090,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
         <v>0.5173638935743443</v>
@@ -3541,7 +3101,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>-1.5</v>
@@ -3555,7 +3115,7 @@
         <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>0.5173638935743443</v>
@@ -3566,7 +3126,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>0.5173638935743443</v>
@@ -3577,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>0.5173638935743443</v>
@@ -3588,7 +3148,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>0.5173638935743443</v>
@@ -3599,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>0.5173638935743443</v>
@@ -3607,10 +3167,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>0.5173638935743443</v>
@@ -3618,10 +3178,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
         <v>0.5173638935743443</v>
@@ -3629,10 +3189,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>0.5173638935743443</v>
@@ -3640,10 +3200,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>0.5173638935743443</v>
@@ -3651,10 +3211,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>0.5173638935743443</v>
@@ -3662,10 +3222,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" t="n">
         <v>0.5173638935743443</v>
@@ -3673,10 +3233,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C38" t="n">
         <v>0.5173638935743443</v>
@@ -3684,10 +3244,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C39" t="n">
         <v>0.5173638935743443</v>
@@ -3695,10 +3255,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="n">
         <v>0.5173638935743443</v>
@@ -3706,100 +3266,12 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
         <v>0.5173638935743443</v>
       </c>
     </row>
